--- a/TourismAgency.xlsx
+++ b/TourismAgency.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Azad\IdeaProjects\Patika\Proje\TourismAgency\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D61A0B3-7E4C-4B2C-9434-10F929167591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1F606A6-15F8-4634-A3C6-3E6A7F92DFC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>user_id</t>
   </si>
@@ -55,13 +55,64 @@
   </si>
   <si>
     <t>hotel_phonenumber</t>
+  </si>
+  <si>
+    <t>room_id</t>
+  </si>
+  <si>
+    <t>room_type</t>
+  </si>
+  <si>
+    <t>room_stock</t>
+  </si>
+  <si>
+    <t>pension_id</t>
+  </si>
+  <si>
+    <t>pension_name</t>
+  </si>
+  <si>
+    <t>pension_type</t>
+  </si>
+  <si>
+    <t>season_id</t>
+  </si>
+  <si>
+    <t>season_name</t>
+  </si>
+  <si>
+    <t>season_price</t>
+  </si>
+  <si>
+    <t>season_hotel_id</t>
+  </si>
+  <si>
+    <t>room_hotel_id</t>
+  </si>
+  <si>
+    <t>reservation_id</t>
+  </si>
+  <si>
+    <t>reservation_room_id</t>
+  </si>
+  <si>
+    <t>reservation_room_stock</t>
+  </si>
+  <si>
+    <t>room_price</t>
+  </si>
+  <si>
+    <t>room_pension_id</t>
+  </si>
+  <si>
+    <t>room_season_id</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -77,8 +128,24 @@
       <charset val="162"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -88,6 +155,16 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -115,17 +192,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
     <cellStyle name="İyi" xfId="1" builtinId="26"/>
+    <cellStyle name="Kötü" xfId="2" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Nötr" xfId="3" builtinId="28"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -403,22 +486,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -432,24 +517,83 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="1" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
